--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H2">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I2">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J2">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.81147350000001</v>
+        <v>57.3951835</v>
       </c>
       <c r="N2">
-        <v>189.622947</v>
+        <v>114.790367</v>
       </c>
       <c r="O2">
-        <v>0.6448118471026588</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P2">
-        <v>0.5478387621460925</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q2">
-        <v>1085.338746403859</v>
+        <v>1789.511168059112</v>
       </c>
       <c r="R2">
-        <v>4341.354985615438</v>
+        <v>7158.044672236447</v>
       </c>
       <c r="S2">
-        <v>0.1936536072412103</v>
+        <v>0.6323966719847296</v>
       </c>
       <c r="T2">
-        <v>0.1291754582298585</v>
+        <v>0.5854375990484095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H3">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I3">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J3">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03838299999999999</v>
+        <v>0.038383</v>
       </c>
       <c r="N3">
         <v>0.115149</v>
       </c>
       <c r="O3">
-        <v>0.0002610423845732273</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P3">
-        <v>0.0003326764329971119</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q3">
-        <v>0.4393830784965</v>
+        <v>1.196734690527</v>
       </c>
       <c r="R3">
-        <v>2.636298470979</v>
+        <v>7.180408143162</v>
       </c>
       <c r="S3">
-        <v>7.839775221655398E-05</v>
+        <v>0.0004229149552381843</v>
       </c>
       <c r="T3">
-        <v>7.844211407446365E-05</v>
+        <v>0.0005872666483662806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H4">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I4">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J4">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04220533333333334</v>
+        <v>0.2601715</v>
       </c>
       <c r="N4">
-        <v>0.126616</v>
+        <v>0.520343</v>
       </c>
       <c r="O4">
-        <v>0.0002870380338962888</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P4">
-        <v>0.0003658056886326613</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q4">
-        <v>0.4831386105560001</v>
+        <v>8.1118270988835</v>
       </c>
       <c r="R4">
-        <v>2.898831663336</v>
+        <v>32.447308395534</v>
       </c>
       <c r="S4">
-        <v>8.620491532406884E-05</v>
+        <v>0.002866644563393984</v>
       </c>
       <c r="T4">
-        <v>8.625369491400091E-05</v>
+        <v>0.002653779794968741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H5">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I5">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J5">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.171684</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N5">
-        <v>0.343368</v>
+        <v>0.270279</v>
       </c>
       <c r="O5">
-        <v>0.001167621101869837</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P5">
-        <v>0.0009920228698933756</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q5">
-        <v>1.965324347982</v>
+        <v>2.808988835517</v>
       </c>
       <c r="R5">
-        <v>7.861297391928001</v>
+        <v>16.853933013102</v>
       </c>
       <c r="S5">
-        <v>0.0003506666933680759</v>
+        <v>0.0009926706370599937</v>
       </c>
       <c r="T5">
-        <v>0.0002339100802049556</v>
+        <v>0.001378438739839599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4473355</v>
+        <v>31.178769</v>
       </c>
       <c r="H6">
-        <v>22.894671</v>
+        <v>62.35753800000001</v>
       </c>
       <c r="I6">
-        <v>0.3003257587641364</v>
+        <v>0.6373769731336328</v>
       </c>
       <c r="J6">
-        <v>0.2357910158160937</v>
+        <v>0.5910264370705582</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>51.860565</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N6">
-        <v>155.581695</v>
+        <v>0.190067</v>
       </c>
       <c r="O6">
-        <v>0.3527031642371584</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P6">
-        <v>0.4494903414901093</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q6">
-        <v>593.6652867745576</v>
+        <v>1.975351695841</v>
       </c>
       <c r="R6">
-        <v>3561.991720647345</v>
+        <v>11.852110175046</v>
       </c>
       <c r="S6">
-        <v>0.1059258454180364</v>
+        <v>0.000698070993211022</v>
       </c>
       <c r="T6">
-        <v>0.1059857842194757</v>
+        <v>0.0009693528389741453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4473355</v>
+        <v>1.342192</v>
       </c>
       <c r="H7">
-        <v>22.894671</v>
+        <v>4.026576</v>
       </c>
       <c r="I7">
-        <v>0.3003257587641364</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J7">
-        <v>0.2357910158160937</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.113114</v>
+        <v>57.3951835</v>
       </c>
       <c r="N7">
-        <v>0.339342</v>
+        <v>114.790367</v>
       </c>
       <c r="O7">
-        <v>0.0007692871398435775</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P7">
-        <v>0.0009803913722751039</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q7">
-        <v>1.294853907747</v>
+        <v>77.03535613223201</v>
       </c>
       <c r="R7">
-        <v>7.769123446482001</v>
+        <v>462.2121367933921</v>
       </c>
       <c r="S7">
-        <v>0.0002310367439810147</v>
+        <v>0.02722358134038352</v>
       </c>
       <c r="T7">
-        <v>0.0002311674775660809</v>
+        <v>0.03780311188401872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>4.026576</v>
       </c>
       <c r="I8">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J8">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>94.81147350000001</v>
+        <v>0.038383</v>
       </c>
       <c r="N8">
-        <v>189.622947</v>
+        <v>0.115149</v>
       </c>
       <c r="O8">
-        <v>0.6448118471026588</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P8">
-        <v>0.5478387621460925</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q8">
-        <v>127.255201239912</v>
+        <v>0.051517355536</v>
       </c>
       <c r="R8">
-        <v>763.5312074394722</v>
+        <v>0.463656199824</v>
       </c>
       <c r="S8">
-        <v>0.0227057486355925</v>
+        <v>1.820575628245775E-05</v>
       </c>
       <c r="T8">
-        <v>0.02271859682532021</v>
+        <v>3.79212179915138E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>4.026576</v>
       </c>
       <c r="I9">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J9">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03838299999999999</v>
+        <v>0.2601715</v>
       </c>
       <c r="N9">
-        <v>0.115149</v>
+        <v>0.520343</v>
       </c>
       <c r="O9">
-        <v>0.0002610423845732273</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P9">
-        <v>0.0003326764329971119</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q9">
-        <v>0.051517355536</v>
+        <v>0.349200105928</v>
       </c>
       <c r="R9">
-        <v>0.463656199824</v>
+        <v>2.095200635568</v>
       </c>
       <c r="S9">
-        <v>9.192081060526356E-06</v>
+        <v>0.0001234040830743157</v>
       </c>
       <c r="T9">
-        <v>1.379592368553789E-05</v>
+        <v>0.0001713609352522233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>4.026576</v>
       </c>
       <c r="I10">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J10">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04220533333333334</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N10">
-        <v>0.126616</v>
+        <v>0.270279</v>
       </c>
       <c r="O10">
-        <v>0.0002870380338962888</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P10">
-        <v>0.0003658056886326613</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q10">
-        <v>0.05664766075733334</v>
+        <v>0.120922103856</v>
       </c>
       <c r="R10">
-        <v>0.5098289468160001</v>
+        <v>1.088298934704</v>
       </c>
       <c r="S10">
-        <v>1.010746541923599E-05</v>
+        <v>4.273275149820145E-05</v>
       </c>
       <c r="T10">
-        <v>1.51697771875402E-05</v>
+        <v>8.900910018782929E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>4.026576</v>
       </c>
       <c r="I11">
-        <v>0.03521298303934167</v>
+        <v>0.0274379746783517</v>
       </c>
       <c r="J11">
-        <v>0.04146949503230264</v>
+        <v>0.03816399657847012</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.171684</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N11">
-        <v>0.343368</v>
+        <v>0.190067</v>
       </c>
       <c r="O11">
-        <v>0.001167621101869837</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P11">
-        <v>0.0009920228698933756</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q11">
-        <v>0.230432891328</v>
+        <v>0.08503546895466665</v>
       </c>
       <c r="R11">
-        <v>1.382597347968</v>
+        <v>0.765319220592</v>
       </c>
       <c r="S11">
-        <v>4.111542205652E-05</v>
+        <v>3.005074711320027E-05</v>
       </c>
       <c r="T11">
-        <v>4.113868747497395E-05</v>
+        <v>6.259344101983562E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,60 +1163,60 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.342192</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H12">
-        <v>4.026576</v>
+        <v>3.955354</v>
       </c>
       <c r="I12">
-        <v>0.03521298303934167</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J12">
-        <v>0.04146949503230264</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.860565</v>
+        <v>57.3951835</v>
       </c>
       <c r="N12">
-        <v>155.581695</v>
+        <v>114.790367</v>
       </c>
       <c r="O12">
-        <v>0.3527031642371584</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P12">
-        <v>0.4494903414901093</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q12">
-        <v>69.60683545848001</v>
+        <v>75.67275621248633</v>
       </c>
       <c r="R12">
-        <v>626.46151912632</v>
+        <v>454.036537274918</v>
       </c>
       <c r="S12">
-        <v>0.0124197305402052</v>
+        <v>0.0267420511494161</v>
       </c>
       <c r="T12">
-        <v>0.01864013748349211</v>
+        <v>0.03713445115723656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.342192</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H13">
-        <v>4.026576</v>
+        <v>3.955354</v>
       </c>
       <c r="I13">
-        <v>0.03521298303934167</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J13">
-        <v>0.04146949503230264</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.113114</v>
+        <v>0.038383</v>
       </c>
       <c r="N13">
-        <v>0.339342</v>
+        <v>0.115149</v>
       </c>
       <c r="O13">
-        <v>0.0007692871398435775</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P13">
-        <v>0.0009803913722751039</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q13">
-        <v>0.151820705888</v>
+        <v>0.05060611752733333</v>
       </c>
       <c r="R13">
-        <v>1.366386352992</v>
+        <v>0.455455057746</v>
       </c>
       <c r="S13">
-        <v>2.708889500769555E-05</v>
+        <v>1.788373321026212E-05</v>
       </c>
       <c r="T13">
-        <v>4.065633514227479E-05</v>
+        <v>3.725046820613991E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H14">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I14">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J14">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.81147350000001</v>
+        <v>0.2601715</v>
       </c>
       <c r="N14">
-        <v>189.622947</v>
+        <v>0.520343</v>
       </c>
       <c r="O14">
-        <v>0.6448118471026588</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P14">
-        <v>0.5478387621460925</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q14">
-        <v>240.30789658012</v>
+        <v>0.3430234610703333</v>
       </c>
       <c r="R14">
-        <v>1441.84737948072</v>
+        <v>2.058140766422</v>
       </c>
       <c r="S14">
-        <v>0.04287738844253103</v>
+        <v>0.0001212213139909259</v>
       </c>
       <c r="T14">
-        <v>0.04290165088067301</v>
+        <v>0.0001683299062761071</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H15">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I15">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J15">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.03838299999999999</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N15">
-        <v>0.115149</v>
+        <v>0.270279</v>
       </c>
       <c r="O15">
-        <v>0.0002610423845732273</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P15">
-        <v>0.0003326764329971119</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q15">
-        <v>0.09728504002666666</v>
+        <v>0.118783235974</v>
       </c>
       <c r="R15">
-        <v>0.87556536024</v>
+        <v>1.069049123766</v>
       </c>
       <c r="S15">
-        <v>1.735826625023044E-05</v>
+        <v>4.197689539932117E-05</v>
       </c>
       <c r="T15">
-        <v>2.605213280046015E-05</v>
+        <v>8.743470891008422E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.534586666666667</v>
+        <v>1.318451333333333</v>
       </c>
       <c r="H16">
-        <v>7.60376</v>
+        <v>3.955354</v>
       </c>
       <c r="I16">
-        <v>0.0664959687623491</v>
+        <v>0.02695265230208422</v>
       </c>
       <c r="J16">
-        <v>0.07831072542696861</v>
+        <v>0.03748895253004986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04220533333333334</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N16">
-        <v>0.126616</v>
+        <v>0.190067</v>
       </c>
       <c r="O16">
-        <v>0.0002870380338962888</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P16">
-        <v>0.0003658056886326613</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q16">
-        <v>0.1069730751288889</v>
+        <v>0.08353136319088887</v>
       </c>
       <c r="R16">
-        <v>0.9627576761600001</v>
+        <v>0.7517822687179999</v>
       </c>
       <c r="S16">
-        <v>1.908687213557372E-05</v>
+        <v>2.951921006760709E-05</v>
       </c>
       <c r="T16">
-        <v>2.864650884213551E-05</v>
+        <v>6.148628942097972E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.534586666666667</v>
+        <v>10.0659815</v>
       </c>
       <c r="H17">
-        <v>7.60376</v>
+        <v>20.131963</v>
       </c>
       <c r="I17">
-        <v>0.0664959687623491</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J17">
-        <v>0.07831072542696861</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.171684</v>
+        <v>57.3951835</v>
       </c>
       <c r="N17">
-        <v>0.343368</v>
+        <v>114.790367</v>
       </c>
       <c r="O17">
-        <v>0.001167621101869837</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P17">
-        <v>0.0009920228698933756</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q17">
-        <v>0.43514797728</v>
+        <v>577.7388553001052</v>
       </c>
       <c r="R17">
-        <v>2.61088786368</v>
+        <v>2310.955421200421</v>
       </c>
       <c r="S17">
-        <v>7.764209631619634E-05</v>
+        <v>0.2041675603311938</v>
       </c>
       <c r="T17">
-        <v>7.768603058149354E-05</v>
+        <v>0.1890069502559805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.534586666666667</v>
+        <v>10.0659815</v>
       </c>
       <c r="H18">
-        <v>7.60376</v>
+        <v>20.131963</v>
       </c>
       <c r="I18">
-        <v>0.0664959687623491</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J18">
-        <v>0.07831072542696861</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>51.860565</v>
+        <v>0.038383</v>
       </c>
       <c r="N18">
-        <v>155.581695</v>
+        <v>0.115149</v>
       </c>
       <c r="O18">
-        <v>0.3527031642371584</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P18">
-        <v>0.4494903414901093</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q18">
-        <v>131.4450965748</v>
+        <v>0.3863625679145</v>
       </c>
       <c r="R18">
-        <v>1183.0058691732</v>
+        <v>2.318175407487</v>
       </c>
       <c r="S18">
-        <v>0.02345333859149577</v>
+        <v>0.0001365369529342512</v>
       </c>
       <c r="T18">
-        <v>0.03519991471450631</v>
+        <v>0.0001895974538963352</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.534586666666667</v>
+        <v>10.0659815</v>
       </c>
       <c r="H19">
-        <v>7.60376</v>
+        <v>20.131963</v>
       </c>
       <c r="I19">
-        <v>0.0664959687623491</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J19">
-        <v>0.07831072542696861</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.113114</v>
+        <v>0.2601715</v>
       </c>
       <c r="N19">
-        <v>0.339342</v>
+        <v>0.520343</v>
       </c>
       <c r="O19">
-        <v>0.0007692871398435775</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P19">
-        <v>0.0009803913722751039</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q19">
-        <v>0.2866972362133334</v>
+        <v>2.61888150582725</v>
       </c>
       <c r="R19">
-        <v>2.580275125920001</v>
+        <v>10.475526023309</v>
       </c>
       <c r="S19">
-        <v>5.115449362031541E-05</v>
+        <v>0.0009254884675594283</v>
       </c>
       <c r="T19">
-        <v>7.677515956520463E-05</v>
+        <v>0.000856765651050211</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H20">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I20">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J20">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>94.81147350000001</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N20">
-        <v>189.622947</v>
+        <v>0.270279</v>
       </c>
       <c r="O20">
-        <v>0.6448118471026588</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P20">
-        <v>0.5478387621460925</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q20">
-        <v>550.3381281273721</v>
+        <v>0.9068744712794998</v>
       </c>
       <c r="R20">
-        <v>2201.352512509488</v>
+        <v>5.441246827676999</v>
       </c>
       <c r="S20">
-        <v>0.09819511564234155</v>
+        <v>0.0003204810384989577</v>
       </c>
       <c r="T20">
-        <v>0.06550045330802454</v>
+        <v>0.0004450252302811799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.804552</v>
+        <v>10.0659815</v>
       </c>
       <c r="H21">
-        <v>11.609104</v>
+        <v>20.131963</v>
       </c>
       <c r="I21">
-        <v>0.1522849123873311</v>
+        <v>0.2057754371280388</v>
       </c>
       <c r="J21">
-        <v>0.119561553204878</v>
+        <v>0.1908112915414702</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.03838299999999999</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N21">
-        <v>0.115149</v>
+        <v>0.190067</v>
       </c>
       <c r="O21">
-        <v>0.0002610423845732273</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P21">
-        <v>0.0003326764329971119</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q21">
-        <v>0.222796119416</v>
+        <v>0.6377369685868332</v>
       </c>
       <c r="R21">
-        <v>1.336776716496</v>
+        <v>3.826421811521</v>
       </c>
       <c r="S21">
-        <v>3.975281666411392E-05</v>
+        <v>0.0002253703378522985</v>
       </c>
       <c r="T21">
-        <v>3.977531104379321E-05</v>
+        <v>0.0003129529502619627</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.804552</v>
+        <v>1.988592</v>
       </c>
       <c r="H22">
-        <v>11.609104</v>
+        <v>5.965776</v>
       </c>
       <c r="I22">
-        <v>0.1522849123873311</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J22">
-        <v>0.119561553204878</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.04220533333333334</v>
+        <v>57.3951835</v>
       </c>
       <c r="N22">
-        <v>0.126616</v>
+        <v>114.790367</v>
       </c>
       <c r="O22">
-        <v>0.0002870380338962888</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P22">
-        <v>0.0003658056886326613</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q22">
-        <v>0.2449830520106667</v>
+        <v>114.135602746632</v>
       </c>
       <c r="R22">
-        <v>1.469898312064</v>
+        <v>684.813616479792</v>
       </c>
       <c r="S22">
-        <v>4.371156184372812E-05</v>
+        <v>0.04033446486407007</v>
       </c>
       <c r="T22">
-        <v>4.373629630410097E-05</v>
+        <v>0.05600909994074211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.804552</v>
+        <v>1.988592</v>
       </c>
       <c r="H23">
-        <v>11.609104</v>
+        <v>5.965776</v>
       </c>
       <c r="I23">
-        <v>0.1522849123873311</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J23">
-        <v>0.119561553204878</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.171684</v>
+        <v>0.038383</v>
       </c>
       <c r="N23">
-        <v>0.343368</v>
+        <v>0.115149</v>
       </c>
       <c r="O23">
-        <v>0.001167621101869837</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P23">
-        <v>0.0009920228698933756</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q23">
-        <v>0.996548705568</v>
+        <v>0.07632812673599999</v>
       </c>
       <c r="R23">
-        <v>3.986194822272</v>
+        <v>0.686953140624</v>
       </c>
       <c r="S23">
-        <v>0.0001778110771998472</v>
+        <v>2.697365302225406E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001186077951392126</v>
+        <v>5.618408597889153E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.804552</v>
+        <v>1.988592</v>
       </c>
       <c r="H24">
-        <v>11.609104</v>
+        <v>5.965776</v>
       </c>
       <c r="I24">
-        <v>0.1522849123873311</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J24">
-        <v>0.119561553204878</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.860565</v>
+        <v>0.2601715</v>
       </c>
       <c r="N24">
-        <v>155.581695</v>
+        <v>0.520343</v>
       </c>
       <c r="O24">
-        <v>0.3527031642371584</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P24">
-        <v>0.4494903414901093</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q24">
-        <v>301.02734629188</v>
+        <v>0.5173749635279999</v>
       </c>
       <c r="R24">
-        <v>1806.16407775128</v>
+        <v>3.104249781168</v>
       </c>
       <c r="S24">
-        <v>0.05371137046459013</v>
+        <v>0.0001828355200812696</v>
       </c>
       <c r="T24">
-        <v>0.05374176337914847</v>
+        <v>0.0002538884041590839</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.804552</v>
+        <v>1.988592</v>
       </c>
       <c r="H25">
-        <v>11.609104</v>
+        <v>5.965776</v>
       </c>
       <c r="I25">
-        <v>0.1522849123873311</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J25">
-        <v>0.119561553204878</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.113114</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N25">
-        <v>0.339342</v>
+        <v>0.270279</v>
       </c>
       <c r="O25">
-        <v>0.0007692871398435775</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P25">
-        <v>0.0009803913722751039</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q25">
-        <v>0.6565760949280001</v>
+        <v>0.179158219056</v>
       </c>
       <c r="R25">
-        <v>3.939456569568001</v>
+        <v>1.612423971504</v>
       </c>
       <c r="S25">
-        <v>0.0001171508246917798</v>
+        <v>6.331285521543222E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001172171152178732</v>
+        <v>0.0001318759049083259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.916697</v>
+        <v>1.988592</v>
       </c>
       <c r="H26">
-        <v>44.750091</v>
+        <v>5.965776</v>
       </c>
       <c r="I26">
-        <v>0.3913459463802487</v>
+        <v>0.04065211008676311</v>
       </c>
       <c r="J26">
-        <v>0.460878840091331</v>
+        <v>0.05654378679352361</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>94.81147350000001</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N26">
-        <v>189.622947</v>
+        <v>0.190067</v>
       </c>
       <c r="O26">
-        <v>0.6448118471026588</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P26">
-        <v>0.5478387621460925</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q26">
-        <v>1414.27402232303</v>
+        <v>0.125988571888</v>
       </c>
       <c r="R26">
-        <v>8485.644133938178</v>
+        <v>1.133897146992</v>
       </c>
       <c r="S26">
-        <v>0.2523445025415862</v>
+        <v>4.452319437407847E-05</v>
       </c>
       <c r="T26">
-        <v>0.2524872932549617</v>
+        <v>9.273845773519506E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.916697</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H27">
-        <v>44.750091</v>
+        <v>9.069982</v>
       </c>
       <c r="I27">
-        <v>0.3913459463802487</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J27">
-        <v>0.460878840091331</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.03838299999999999</v>
+        <v>57.3951835</v>
       </c>
       <c r="N27">
-        <v>0.115149</v>
+        <v>114.790367</v>
       </c>
       <c r="O27">
-        <v>0.0002610423845732273</v>
+        <v>0.9921862549812275</v>
       </c>
       <c r="P27">
-        <v>0.0003326764329971119</v>
+        <v>0.9905438442824148</v>
       </c>
       <c r="Q27">
-        <v>0.5725475809509999</v>
+        <v>173.5244270772323</v>
       </c>
       <c r="R27">
-        <v>5.152928228559</v>
+        <v>1041.146562463394</v>
       </c>
       <c r="S27">
-        <v>0.0001021578790361665</v>
+        <v>0.06132192531143443</v>
       </c>
       <c r="T27">
-        <v>0.0001533235285654303</v>
+        <v>0.08515263199602734</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.916697</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H28">
-        <v>44.750091</v>
+        <v>9.069982</v>
       </c>
       <c r="I28">
-        <v>0.3913459463802487</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J28">
-        <v>0.460878840091331</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.04220533333333334</v>
+        <v>0.038383</v>
       </c>
       <c r="N28">
-        <v>0.126616</v>
+        <v>0.115149</v>
       </c>
       <c r="O28">
-        <v>0.0002870380338962888</v>
+        <v>0.0006635240572920976</v>
       </c>
       <c r="P28">
-        <v>0.0003658056886326613</v>
+        <v>0.000993638543949213</v>
       </c>
       <c r="Q28">
-        <v>0.6295641691173335</v>
+        <v>0.1160443730353333</v>
       </c>
       <c r="R28">
-        <v>5.666077522056001</v>
+        <v>1.044399357318</v>
       </c>
       <c r="S28">
-        <v>0.000112331171022269</v>
+        <v>4.100900660468814E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001685921014758316</v>
+        <v>8.541866951005176E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.916697</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H29">
-        <v>44.750091</v>
+        <v>9.069982</v>
       </c>
       <c r="I29">
-        <v>0.3913459463802487</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J29">
-        <v>0.460878840091331</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.171684</v>
+        <v>0.2601715</v>
       </c>
       <c r="N29">
-        <v>0.343368</v>
+        <v>0.520343</v>
       </c>
       <c r="O29">
-        <v>0.001167621101869837</v>
+        <v>0.004497565309427897</v>
       </c>
       <c r="P29">
-        <v>0.0009920228698933756</v>
+        <v>0.004490120286534536</v>
       </c>
       <c r="Q29">
-        <v>2.560958207748</v>
+        <v>0.7865836073043333</v>
       </c>
       <c r="R29">
-        <v>15.365749246488</v>
+        <v>4.719501643826</v>
       </c>
       <c r="S29">
-        <v>0.0004569437851248002</v>
+        <v>0.0002779713613279738</v>
       </c>
       <c r="T29">
-        <v>0.0004572023496205323</v>
+        <v>0.0003859955948281692</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.916697</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H30">
-        <v>44.750091</v>
+        <v>9.069982</v>
       </c>
       <c r="I30">
-        <v>0.3913459463802487</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J30">
-        <v>0.460878840091331</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>51.860565</v>
+        <v>0.09009299999999999</v>
       </c>
       <c r="N30">
-        <v>155.581695</v>
+        <v>0.270279</v>
       </c>
       <c r="O30">
-        <v>0.3527031642371584</v>
+        <v>0.001557430969273296</v>
       </c>
       <c r="P30">
-        <v>0.4494903414901093</v>
+        <v>0.002332279325222532</v>
       </c>
       <c r="Q30">
-        <v>773.5883343538051</v>
+        <v>0.272380629442</v>
       </c>
       <c r="R30">
-        <v>6962.295009184246</v>
+        <v>2.451425664978</v>
       </c>
       <c r="S30">
-        <v>0.1380289535996991</v>
+        <v>9.625679160139039E-05</v>
       </c>
       <c r="T30">
-        <v>0.2071605872182178</v>
+        <v>0.0002004956410955134</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.916697</v>
+        <v>3.023327333333333</v>
       </c>
       <c r="H31">
-        <v>44.750091</v>
+        <v>9.069982</v>
       </c>
       <c r="I31">
-        <v>0.3913459463802487</v>
+        <v>0.06180485267112943</v>
       </c>
       <c r="J31">
-        <v>0.460878840091331</v>
+        <v>0.08596553548592786</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,400 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.113114</v>
+        <v>0.06335566666666666</v>
       </c>
       <c r="N31">
-        <v>0.339342</v>
+        <v>0.190067</v>
       </c>
       <c r="O31">
-        <v>0.0007692871398435775</v>
+        <v>0.001095224682779156</v>
       </c>
       <c r="P31">
-        <v>0.0009803913722751039</v>
+        <v>0.001640117561878914</v>
       </c>
       <c r="Q31">
-        <v>1.687287264458</v>
+        <v>0.1915449187548889</v>
       </c>
       <c r="R31">
-        <v>15.185585380122</v>
+        <v>1.723904268794</v>
       </c>
       <c r="S31">
-        <v>0.0003010574037802395</v>
+        <v>6.769020016095023E-05</v>
       </c>
       <c r="T31">
-        <v>0.0004518416384896982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H32">
-        <v>6.213098</v>
-      </c>
-      <c r="I32">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J32">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>94.81147350000001</v>
-      </c>
-      <c r="N32">
-        <v>189.622947</v>
-      </c>
-      <c r="O32">
-        <v>0.6448118471026588</v>
-      </c>
-      <c r="P32">
-        <v>0.5478387621460925</v>
-      </c>
-      <c r="Q32">
-        <v>196.357658793301</v>
-      </c>
-      <c r="R32">
-        <v>1178.145952759806</v>
-      </c>
-      <c r="S32">
-        <v>0.03503548459939722</v>
-      </c>
-      <c r="T32">
-        <v>0.03505530964725448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H33">
-        <v>6.213098</v>
-      </c>
-      <c r="I33">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J33">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.03838299999999999</v>
-      </c>
-      <c r="N33">
-        <v>0.115149</v>
-      </c>
-      <c r="O33">
-        <v>0.0002610423845732273</v>
-      </c>
-      <c r="P33">
-        <v>0.0003326764329971119</v>
-      </c>
-      <c r="Q33">
-        <v>0.07949244684466666</v>
-      </c>
-      <c r="R33">
-        <v>0.7154320216019999</v>
-      </c>
-      <c r="S33">
-        <v>1.418358934563614E-05</v>
-      </c>
-      <c r="T33">
-        <v>2.128742282742661E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H34">
-        <v>6.213098</v>
-      </c>
-      <c r="I34">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J34">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.04220533333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.126616</v>
-      </c>
-      <c r="O34">
-        <v>0.0002870380338962888</v>
-      </c>
-      <c r="P34">
-        <v>0.0003658056886326613</v>
-      </c>
-      <c r="Q34">
-        <v>0.08740862404088891</v>
-      </c>
-      <c r="R34">
-        <v>0.786677616368</v>
-      </c>
-      <c r="S34">
-        <v>1.559604815141309E-05</v>
-      </c>
-      <c r="T34">
-        <v>2.340730990905216E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H35">
-        <v>6.213098</v>
-      </c>
-      <c r="I35">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J35">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.171684</v>
-      </c>
-      <c r="N35">
-        <v>0.343368</v>
-      </c>
-      <c r="O35">
-        <v>0.001167621101869837</v>
-      </c>
-      <c r="P35">
-        <v>0.0009920228698933756</v>
-      </c>
-      <c r="Q35">
-        <v>0.355563172344</v>
-      </c>
-      <c r="R35">
-        <v>2.133379034064</v>
-      </c>
-      <c r="S35">
-        <v>6.344202780439767E-05</v>
-      </c>
-      <c r="T35">
-        <v>6.347792687220747E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H36">
-        <v>6.213098</v>
-      </c>
-      <c r="I36">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J36">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>51.860565</v>
-      </c>
-      <c r="N36">
-        <v>155.581695</v>
-      </c>
-      <c r="O36">
-        <v>0.3527031642371584</v>
-      </c>
-      <c r="P36">
-        <v>0.4494903414901093</v>
-      </c>
-      <c r="Q36">
-        <v>107.40492422679</v>
-      </c>
-      <c r="R36">
-        <v>966.6443180411101</v>
-      </c>
-      <c r="S36">
-        <v>0.01916392562313187</v>
-      </c>
-      <c r="T36">
-        <v>0.02876215447526877</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.071032666666667</v>
-      </c>
-      <c r="H37">
-        <v>6.213098</v>
-      </c>
-      <c r="I37">
-        <v>0.05433443066659307</v>
-      </c>
-      <c r="J37">
-        <v>0.06398837042842591</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.113114</v>
-      </c>
-      <c r="N37">
-        <v>0.339342</v>
-      </c>
-      <c r="O37">
-        <v>0.0007692871398435775</v>
-      </c>
-      <c r="P37">
-        <v>0.0009803913722751039</v>
-      </c>
-      <c r="Q37">
-        <v>0.2342627890573334</v>
-      </c>
-      <c r="R37">
-        <v>2.108365101516001</v>
-      </c>
-      <c r="S37">
-        <v>4.179877876253254E-05</v>
-      </c>
-      <c r="T37">
-        <v>6.273364629397215E-05</v>
+        <v>0.0001409935844667953</v>
       </c>
     </row>
   </sheetData>
